--- a/biology/Botanique/Rosa_×fortuneana/Rosa_×fortuneana.xlsx
+++ b/biology/Botanique/Rosa_×fortuneana/Rosa_×fortuneana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rosa_%C3%97fortuneana</t>
+          <t>Rosa_×fortuneana</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rosa ×fortuneana[1] est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un rosier hybride issu du croisement entre Rosa banksiae et Rosa laevigata[2]. Cet hybride appartient à la section des Banksianae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rosa ×fortuneana est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un rosier hybride issu du croisement entre Rosa banksiae et Rosa laevigata. Cet hybride appartient à la section des Banksianae.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rosa_%C3%97fortuneana</t>
+          <t>Rosa_×fortuneana</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Rosa ×fortuneana n'existe pas dans la nature. Il était cultivé depuis longtemps dans les jardins en Chine, et c'est là dans les jardins, qu'il a été trouvé en 1845 par Robert Fortune.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rosa_%C3%97fortuneana</t>
+          <t>Rosa_×fortuneana</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">D'une hauteur de 7 à 10 m, il est aussi vigoureux que Rosa banksiae et Rosa laevigata et comme eux il possède un feuillage persistant. Ses feuilles de 3 à 5 folioles sont ovales à bords finement dentés.
 Sa floraison en juin est constituée de grandes (7 cm) fleurs doubles, blanc crème, aux pétales peu serrés, toujours isolées.
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rosa_%C3%97fortuneana</t>
+          <t>Rosa_×fortuneana</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Rosa ×fortuniana[1] Lindl.</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Rosa ×fortuniana Lindl.</t>
         </is>
       </c>
     </row>
